--- a/xlsx/海峡交流基金会_intext.xlsx
+++ b/xlsx/海峡交流基金会_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="621">
   <si>
     <t>海峡交流基金会</t>
   </si>
@@ -26,40 +26,40 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%9C%98%E6%B3%95%E4%BA%BA</t>
   </si>
   <si>
-    <t>財團法人</t>
-  </si>
-  <si>
-    <t>政策_政策_智庫_海峡交流基金会</t>
+    <t>财团法人</t>
+  </si>
+  <si>
+    <t>政策_政策_智库_海峡交流基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>中華民國政府</t>
+    <t>中华民国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%8C%97%E5%B8%82</t>
   </si>
   <si>
-    <t>臺北市</t>
+    <t>台北市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B1%B1%E5%8D%80_(%E8%87%BA%E5%8C%97%E5%B8%82)</t>
   </si>
   <si>
-    <t>中山區 (臺北市)</t>
+    <t>中山区 (台北市)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%AE%89%E8%B7%AF</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>董事長</t>
+    <t>董事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E5%BC%98%E8%8C%82</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B3%BD%E5%85%A9%E5%B2%B8</t>
   </si>
   <si>
-    <t>海峽兩岸</t>
+    <t>海峡两岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%84%E7%BB%87_(%E7%A4%BE%E4%BC%9A%E5%AD%A6)</t>
@@ -95,39 +95,36 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2%E5%A4%A7%E9%99%B8%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>行政院大陸委員會</t>
+    <t>行政院大陆委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B3%BD%E5%85%A9%E5%B2%B8%E9%97%9C%E4%BF%82%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>海峽兩岸關係協會</t>
+    <t>海峡两岸关系协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>中華民國總統</t>
+    <t>中华民国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E7%B6%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>蔣經國</t>
+    <t>蒋经国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7</t>
   </si>
   <si>
@@ -167,7 +164,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%8C%97%E6%8D%B7%E9%81%8B%E6%96%87%E6%B9%96%E7%B7%9A</t>
   </si>
   <si>
-    <t>台北捷運文湖線</t>
+    <t>台北捷运文湖线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9B%B4%E7%AB%99</t>
@@ -185,13 +182,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%89%E5%BE%B7%E5%8B%B3</t>
   </si>
   <si>
-    <t>劉德勳</t>
+    <t>刘德勳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E4%BF%8A%E9%9B%84</t>
   </si>
   <si>
-    <t>張俊雄</t>
+    <t>张俊雄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A5%87%E6%98%8C</t>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9C%E6%B1%AA%E6%9C%83%E8%AB%87</t>
   </si>
   <si>
-    <t>辜汪會談</t>
+    <t>辜汪会谈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%AA%E9%81%93%E6%B6%B5</t>
@@ -239,7 +236,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E6%A8%B9%E5%82%99</t>
   </si>
   <si>
-    <t>唐樹備</t>
+    <t>唐树备</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC</t>
@@ -257,49 +254,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E6%B1%9F%E9%99%B3%E6%9C%83%E8%AB%87</t>
   </si>
   <si>
-    <t>第一次江陳會談</t>
+    <t>第一次江陈会谈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E9%9B%B2%E6%9E%97</t>
   </si>
   <si>
-    <t>陳雲林</t>
+    <t>陈云林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9F%BA%E6%9C%83</t>
   </si>
   <si>
-    <t>海基會</t>
+    <t>海基会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%B2%B8</t>
   </si>
   <si>
-    <t>兩岸</t>
+    <t>两岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>台灣海峽</t>
+    <t>台湾海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E6%B1%9F%E9%99%B3%E6%9C%83%E8%AB%87</t>
   </si>
   <si>
-    <t>第二次江陳會談</t>
+    <t>第二次江陈会谈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%93%E5%B1%B1%E9%A3%AF%E5%BA%97</t>
   </si>
   <si>
-    <t>圓山飯店</t>
+    <t>圆山饭店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E6%B1%9F%E9%99%B3%E6%9C%83%E8%AB%87</t>
   </si>
   <si>
-    <t>第三次江陳會談</t>
+    <t>第三次江陈会谈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC</t>
@@ -311,55 +308,55 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%9B%9B%E6%AC%A1%E6%B1%9F%E9%99%B3%E6%9C%83%E8%AB%87</t>
   </si>
   <si>
-    <t>第四次江陳會談</t>
+    <t>第四次江陈会谈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E6%AC%A1%E6%B1%9F%E9%99%B3%E6%9C%83%E8%AB%87</t>
   </si>
   <si>
-    <t>第五次江陳會談</t>
+    <t>第五次江陈会谈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B3%BD%E5%85%A9%E5%B2%B8%E7%B6%93%E6%BF%9F%E5%90%88%E4%BD%9C%E6%9E%B6%E6%A7%8B%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>海峽兩岸經濟合作架構協議</t>
+    <t>海峡两岸经济合作架构协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%85%AD%E6%AC%A1%E6%B1%9F%E9%99%B3%E6%9C%83%E8%AB%87</t>
   </si>
   <si>
-    <t>第六次江陳會談</t>
+    <t>第六次江陈会谈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%83%E6%AC%A1%E6%B1%9F%E9%99%B3%E6%9C%83%E8%AB%87</t>
   </si>
   <si>
-    <t>第七次江陳會談</t>
+    <t>第七次江陈会谈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%85%AB%E6%AC%A1%E6%B1%9F%E9%99%B3%E6%9C%83%E8%AB%87</t>
   </si>
   <si>
-    <t>第八次江陳會談</t>
+    <t>第八次江陈会谈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E5%BE%B7%E9%8A%98</t>
   </si>
   <si>
-    <t>陳德銘</t>
+    <t>陈德铭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>海協會</t>
+    <t>海协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%B2%B8%E6%9C%8D%E5%8B%99%E8%B2%BF%E6%98%93%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>兩岸服務貿易協議</t>
+    <t>两岸服务贸易协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%A1%E8%8B%B1%E6%96%87</t>
@@ -371,37 +368,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%8B%99%E9%99%A2%E8%87%BA%E7%81%A3%E4%BA%8B%E5%8B%99%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
-    <t>國務院臺灣事務辦公室</t>
+    <t>国务院台湾事务办公室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%8A%95%E8%B3%87%E4%B8%AD%E5%9C%8B%E5%8F%97%E5%AE%B3%E8%80%85%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>台灣投資中國受害者協會</t>
+    <t>台湾投资中国受害者协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8F%B0%E6%B9%BE%E4%BA%8B%E5%8A%A1%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
-    <t>国务院台湾事务办公室</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B3%A1%E4%B8%A4%E5%B2%B8%E5%85%B3%E7%B3%BB%E5%8D%8F%E4%BC%9A</t>
   </si>
   <si>
-    <t>海峡两岸关系协会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B3%BD%E5%85%A9%E5%B2%B8%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>海峽兩岸關係</t>
+    <t>海峡两岸关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%BA%8C%E5%85%B1%E8%AD%98</t>
   </si>
   <si>
-    <t>九二共識</t>
+    <t>九二共识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E4%B8%AD%E5%90%84%E8%A1%A8</t>
@@ -419,19 +410,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%B1%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>國共關係</t>
+    <t>国共关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E6%B5%B7%E7%8F%BE%E7%8B%80</t>
   </si>
   <si>
-    <t>臺海現狀</t>
+    <t>台海现状</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>台灣問題</t>
+    <t>台湾问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E4%B8%AA%E4%B8%AD%E5%9B%BD</t>
@@ -449,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E6%B4%BE</t>
   </si>
   <si>
-    <t>統派</t>
+    <t>统派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%9B%BD%E4%B8%A4%E5%88%B6</t>
@@ -461,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%9C%8B%E8%89%AF%E5%88%B6</t>
   </si>
   <si>
-    <t>一國良制</t>
+    <t>一国良制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%9B%BD%E4%B8%A4%E5%BA%9C</t>
@@ -479,19 +470,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%B0%91%E4%B8%BB%E7%BE%A9%E7%B5%B1%E4%B8%80%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>三民主義統一中國</t>
+    <t>三民主义统一中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%BA%E6%9C%B1%E6%8B%94%E6%AF%9B</t>
   </si>
   <si>
-    <t>殺朱拔毛</t>
+    <t>杀朱拔毛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%94%BB%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>反攻大陸</t>
+    <t>反攻大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%BA%B2%E5%9B%9B%E7%9B%AE</t>
@@ -509,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E4%B9%9D%E6%A2%9D</t>
   </si>
   <si>
-    <t>葉九條</t>
+    <t>叶九条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E5%85%AB%E7%82%B9</t>
@@ -551,19 +542,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E6%A5%B5%E7%B5%B1%E4%B8%80</t>
   </si>
   <si>
-    <t>終極統一</t>
+    <t>终极统一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95%E4%B8%80%E4%B8%AD</t>
   </si>
   <si>
-    <t>憲法一中</t>
+    <t>宪法一中</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%B2%B8%E4%B8%80%E4%B8%AD</t>
   </si>
   <si>
-    <t>兩岸一中</t>
+    <t>两岸一中</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E4%B8%AD%E5%90%8C%E8%A1%A8</t>
@@ -587,55 +578,55 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E4%B8%AD%E5%85%A9%E6%86%B2</t>
   </si>
   <si>
-    <t>一中兩憲</t>
+    <t>一中两宪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E4%B8%AD%E5%85%A9%E5%9C%8B</t>
   </si>
   <si>
-    <t>一中兩國</t>
+    <t>一中两国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%AE%8A%E9%9D%9E%E5%85%A9%E5%9C%8B%E8%AB%96</t>
   </si>
   <si>
-    <t>特殊非兩國論</t>
+    <t>特殊非两国论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>中國夢</t>
+    <t>中国梦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E4%BA%94%E6%96%B0%E8%A7%80%E9%BB%9E</t>
   </si>
   <si>
-    <t>一五新觀點</t>
+    <t>一五新观点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%80%8B%E4%B8%80%E7%99%BE%E5%B9%B4</t>
   </si>
   <si>
-    <t>兩個一百年</t>
+    <t>两个一百年</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E8%97%8D</t>
   </si>
   <si>
-    <t>泛藍</t>
+    <t>泛蓝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國共產黨</t>
+    <t>中国共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%8B%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國國民黨</t>
+    <t>中国国民党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%9B%BD%E6%B0%91%E5%85%9A%E9%9D%A9%E5%91%BD%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -653,19 +644,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%B4%AA%E9%96%80%E8%87%B4%E5%85%AC%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國洪門致公黨</t>
+    <t>中国洪门致公党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E8%87%B4%E5%85%AC%E9%BB%A8</t>
   </si>
   <si>
-    <t>台灣致公黨</t>
+    <t>台湾致公党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%B0%91%E4%B8%BB%E9%80%B2%E6%AD%A5%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國民主進步黨</t>
+    <t>中国民主进步党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E8%87%B4%E5%85%AC%E5%85%9A</t>
@@ -683,31 +674,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E9%9D%92%E5%B9%B4%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國青年黨</t>
+    <t>中国青年党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%B0%91%E4%B8%BB%E7%A4%BE%E6%9C%83%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國民主社會黨</t>
+    <t>中国民主社会党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%B0%91%E7%9C%BE%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國民眾黨</t>
+    <t>中国民众党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%94%9F%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國生產黨</t>
+    <t>中国生产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E9%BB%A8_(%E8%87%BA%E7%81%A3)</t>
   </si>
   <si>
-    <t>勞動黨 (臺灣)</t>
+    <t>劳动党 (台湾)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE%E6%B0%91%E4%B8%BB%E8%87%AA%E6%B2%BB%E5%90%8C%E7%9B%9F</t>
@@ -719,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%B0%91%E4%B8%BB%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>臺灣民主共產黨</t>
+    <t>台湾民主共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE%E4%BA%BA%E6%B0%91%E5%85%B1%E4%BA%A7%E5%85%9A</t>
@@ -731,13 +722,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E7%B5%B1%E4%B8%80%E4%BF%83%E9%80%B2%E9%BB%A8</t>
   </si>
   <si>
-    <t>中華統一促進黨</t>
+    <t>中华统一促进党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%84%9B%E5%9C%8B%E5%90%8C%E5%BF%83%E6%9C%83</t>
   </si>
   <si>
-    <t>中華愛國同心會</t>
+    <t>中华爱国同心会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E5%85%A8%E5%9B%BD%E5%8F%B0%E6%B9%BE%E5%90%8C%E8%83%9E%E8%81%94%E8%B0%8A%E4%BC%9A</t>
@@ -749,49 +740,49 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E5%8F%B0%E5%95%86%E6%84%9B%E5%9C%8B%E9%BB%A8</t>
   </si>
   <si>
-    <t>中華台商愛國黨</t>
+    <t>中华台商爱国党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>中華民國共產黨</t>
+    <t>中华民国共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%BB%A8</t>
   </si>
   <si>
-    <t>新黨</t>
+    <t>新党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%BB%A8%E5%9C%98%E7%B5%90%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>無黨團結聯盟</t>
+    <t>无党团结联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%BD%AE%E8%81%AF%E5%90%88%E6%9C%83</t>
   </si>
   <si>
-    <t>夏潮聯合會</t>
+    <t>夏潮联合会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%9C%8B%E9%BB%A8</t>
   </si>
   <si>
-    <t>民國黨</t>
+    <t>民国党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E9%BB%A8_(%E8%87%BA%E7%81%A3)</t>
   </si>
   <si>
-    <t>工黨 (臺灣)</t>
+    <t>工党 (台湾)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%B0%91%E4%B8%BB%E7%BE%A9%E7%B5%B1%E4%B8%80%E4%B8%AD%E5%9C%8B%E5%A4%A7%E5%90%8C%E7%9B%9F</t>
   </si>
   <si>
-    <t>三民主義統一中國大同盟</t>
+    <t>三民主义统一中国大同盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%92%8C%E5%B9%B3%E7%BB%9F%E4%B8%80%E4%BF%83%E8%BF%9B%E4%BC%9A</t>
@@ -803,37 +794,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%B5%B1%E4%B8%80%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>中國統一聯盟</t>
+    <t>中国统一联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E5%BE%A9%E5%A4%A7%E9%99%B8%E8%A8%AD%E8%A8%88%E7%A0%94%E7%A9%B6%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>光復大陸設計研究委員會</t>
+    <t>光复大陆设计研究委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%B5%B1%E4%B8%80%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>國家統一委員會</t>
+    <t>国家统一委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E8%A1%8C%E5%8B%95%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>民主行動聯盟</t>
+    <t>民主行动联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E7%AB%B6%E7%88%AD%E5%8A%9B%E8%AB%96%E5%A3%87</t>
   </si>
   <si>
-    <t>臺灣競爭力論壇</t>
+    <t>台湾竞争力论坛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%B2%B8%E7%B5%B1%E5%90%88%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>兩岸統合學會</t>
+    <t>两岸统合学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A4%E4%B8%AA%E4%B8%AD%E5%9B%BD</t>
@@ -851,151 +842,151 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%AE%8A%E7%9A%84%E5%9C%8B%E8%88%87%E5%9C%8B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>特殊的國與國關係</t>
+    <t>特殊的国与国关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%A8%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>中華民國在台灣</t>
+    <t>中华民国在台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%98%AF%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>中華民國是臺灣</t>
+    <t>中华民国是台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E4%B8%8D%E4%B8%80%E6%B2%92%E6%9C%89</t>
   </si>
   <si>
-    <t>四不一沒有</t>
+    <t>四不一没有</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%80%E4%B8%AD%E6%9E%B6%E6%A7%8B</t>
   </si>
   <si>
-    <t>大一中架構</t>
+    <t>大一中架构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%85%B1%E8%AD%98</t>
   </si>
   <si>
-    <t>台灣共識</t>
+    <t>台湾共识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>台灣民族主義</t>
+    <t>台湾民族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E4%B8%BB%E9%AB%94%E6%80%A7</t>
   </si>
   <si>
-    <t>臺灣主體性</t>
+    <t>台湾主体性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%9C%B0%E4%BD%8D%E6%9C%AA%E5%AE%9A%E8%AB%96</t>
   </si>
   <si>
-    <t>台灣地位未定論</t>
+    <t>台湾地位未定论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E7%8D%A8%E7%AB%8B%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>台灣獨立運動</t>
+    <t>台湾独立运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%8D%A8%E6%B4%BE</t>
   </si>
   <si>
-    <t>台獨派</t>
+    <t>台独派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>台灣共和國</t>
+    <t>台湾共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%8D%A8%E5%B7%A6%E6%B4%BE</t>
   </si>
   <si>
-    <t>台獨左派</t>
+    <t>台独左派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E7%8D%A8%E7%AB%8B%E9%81%8B%E5%8B%95%E7%9A%84%E6%96%B0%E4%B8%96%E4%BB%A3%E7%B6%B1%E9%A0%98</t>
   </si>
   <si>
-    <t>台灣獨立運動的新世代綱領</t>
+    <t>台湾独立运动的新世代纲领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E7%8D%A8</t>
   </si>
   <si>
-    <t>天然獨</t>
+    <t>天然独</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%82%8A%E4%B8%80%E5%9C%8B</t>
   </si>
   <si>
-    <t>一邊一國</t>
+    <t>一边一国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E9%9A%8E%E6%AE%B5%E8%AB%96</t>
   </si>
   <si>
-    <t>四階段論</t>
+    <t>四阶段论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E5%8F%B0</t>
   </si>
   <si>
-    <t>獨台</t>
+    <t>独台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%8D%A8</t>
   </si>
   <si>
-    <t>華獨</t>
+    <t>华独</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%EF%BC%88%E8%87%BA%E7%81%A3%EF%BC%89</t>
   </si>
   <si>
-    <t>中華民國（臺灣）</t>
+    <t>中华民国（台湾）</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%8F%B2%E7%9A%84%E5%88%86%E6%9C%9F</t>
   </si>
   <si>
-    <t>中華民國史的分期</t>
+    <t>中华民国史的分期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%BB%E4%B8%AD%E5%9C%8B%E5%8C%96</t>
   </si>
   <si>
-    <t>去中國化</t>
+    <t>去中国化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%AD%A3%E5%90%8D%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>台灣正名運動</t>
+    <t>台湾正名运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%8D%A8%E9%BB%A8%E7%B6%B1</t>
   </si>
   <si>
-    <t>台獨黨綱</t>
+    <t>台独党纲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%89%8D%E9%80%94%E6%B1%BA%E8%AD%B0%E6%96%87</t>
   </si>
   <si>
-    <t>臺灣前途決議文</t>
+    <t>台湾前途决议文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%A6%81%E4%B8%80%E6%B2%A1%E6%9C%89</t>
@@ -1007,7 +998,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E5%85%AD%E5%85%B1%E8%AD%98</t>
   </si>
   <si>
-    <t>九六共識</t>
+    <t>九六共识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94%E5%88%B6</t>
@@ -1025,181 +1016,181 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95%E5%90%84%E8%A1%A8</t>
   </si>
   <si>
-    <t>憲法各表</t>
+    <t>宪法各表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%9C%8B%E4%B8%80%E5%88%B6</t>
   </si>
   <si>
-    <t>兩國一制</t>
+    <t>两国一制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E7%B6%A0</t>
   </si>
   <si>
-    <t>泛綠</t>
+    <t>泛绿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%80%B2%E6%AD%A5%E9%BB%A8</t>
   </si>
   <si>
-    <t>民主進步黨</t>
+    <t>民主进步党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%9C%98%E7%B5%90%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>台灣團結聯盟</t>
+    <t>台湾团结联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E5%9C%8B%E9%BB%A8</t>
   </si>
   <si>
-    <t>建國黨</t>
+    <t>建国党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>親民黨</t>
+    <t>亲民党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E7%8D%A8%E7%AB%8B%E5%BB%BA%E5%9C%8B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>台灣獨立建國聯盟</t>
+    <t>台湾独立建国联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%BB%BA%E5%9C%8B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>台灣建國聯盟</t>
+    <t>台湾建国联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%95%99%E6%8E%88%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>台灣教授協會</t>
+    <t>台湾教授协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%9C%8B%E5%AE%B6%E9%80%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>新國家連線</t>
+    <t>新国家连线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E5%9C%8B%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>建國廣場</t>
+    <t>建国广场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E7%A4%BE</t>
   </si>
   <si>
-    <t>台灣社</t>
+    <t>台湾社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%8F%B0%E7%81%A3%E6%9C%83</t>
   </si>
   <si>
-    <t>獨立台灣會</t>
+    <t>独立台湾会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/908%E5%8F%B0%E7%81%A3%E5%9C%8B%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>908台灣國運動</t>
+    <t>908台湾国运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E7%9C%81%E4%BA%BA%E5%8F%B0%E7%81%A3%E7%8D%A8%E7%AB%8B%E4%BF%83%E9%80%B2%E6%9C%83</t>
   </si>
   <si>
-    <t>外省人台灣獨立促進會</t>
+    <t>外省人台湾独立促进会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E4%BA%BA%E5%85%AC%E5%85%B1%E4%BA%8B%E5%8B%99%E6%9C%83</t>
   </si>
   <si>
-    <t>台灣人公共事務會</t>
+    <t>台湾人公共事务会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%8A%95%E8%AD%B7%E5%8F%B0%E7%81%A3%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>公投護台灣聯盟</t>
+    <t>公投护台湾联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%82%8A%E4%B8%80%E5%9C%8B%E9%80%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>一邊一國連線</t>
+    <t>一边一国连线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E5%8A%9B%E9%87%8F</t>
   </si>
   <si>
-    <t>時代力量</t>
+    <t>时代力量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E8%87%BA%E7%81%A3)</t>
   </si>
   <si>
-    <t>社會民主黨 (臺灣)</t>
+    <t>社会民主党 (台湾)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%8F%8D%E4%B8%80%E4%B8%AD%E9%A1%A7%E4%B8%BB%E6%AC%8A%E9%80%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>臺灣反一中顧主權連線</t>
+    <t>台湾反一中顾主权连线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%80%B2%E9%BB%A8</t>
   </si>
   <si>
-    <t>基進黨</t>
+    <t>基进党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%B7%A6%E7%B6%AD%E6%96%B0</t>
   </si>
   <si>
-    <t>臺左維新</t>
+    <t>台左维新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%B0%91%E6%97%8F%E9%BB%A8</t>
   </si>
   <si>
-    <t>台灣民族黨</t>
+    <t>台湾民族党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%8F%B0%E7%81%A3%E9%BB%A8</t>
   </si>
   <si>
-    <t>自由台灣黨</t>
+    <t>自由台湾党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E7%8D%A8%E7%AB%8B%E9%BB%A8</t>
   </si>
   <si>
-    <t>台灣獨立黨</t>
+    <t>台湾独立党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%84%E5%8F%B0%E8%AB%96</t>
   </si>
   <si>
-    <t>棄台論</t>
+    <t>弃台论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%88%86%E8%A3%82%E8%AB%96</t>
   </si>
   <si>
-    <t>中國分裂論</t>
+    <t>中国分裂论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%8D%B3%E5%B0%87%E5%B4%A9%E6%BD%B0</t>
   </si>
   <si>
-    <t>中國即將崩潰</t>
+    <t>中国即将崩溃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A8%81%E8%83%81%E8%AE%BA</t>
@@ -1211,19 +1202,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%81%AF%E9%82%A6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>中華聯邦主義</t>
+    <t>中华联邦主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%B0%91%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>台灣民政府</t>
+    <t>台湾民政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E5%8F%B0%E7%81%A3%E7%BE%A4%E5%B3%B6%E6%96%B9%E6%A1%88</t>
   </si>
   <si>
-    <t>美屬台灣群島方案</t>
+    <t>美属台湾群岛方案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89%E6%88%98%E4%BF%98%E9%81%A3%E8%BF%94%E9%97%AE%E9%A2%98</t>
@@ -1235,19 +1226,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%85%B1%E7%BE%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>反共義士</t>
+    <t>反共义士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%80%B2%E5%B1%B1%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>洪進山事件</t>
+    <t>洪进山事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B6%E6%99%AE%E6%96%AF%E8%99%9F%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>陶普斯號事件</t>
+    <t>陶普斯号事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E4%BB%80%E7%B1%B3%E5%B0%94%E5%85%AC%E4%B8%BB%E5%8F%B7%E4%BA%8B%E4%BB%B6</t>
@@ -1259,7 +1250,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E8%8F%AF%E5%AF%AE</t>
   </si>
   <si>
-    <t>光華寮</t>
+    <t>光华寮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%93%E9%80%9A%E5%8D%97%E5%8C%97%E8%88%AA%E7%BA%BF</t>
@@ -1277,7 +1268,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%88%AA%E7%A9%BA334%E8%99%9F%E7%8F%AD%E6%A9%9F%E5%8A%AB%E6%A9%9F%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>中華航空334號班機劫機事件</t>
+    <t>中华航空334号班机劫机事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%B8%83%E4%BA%8B%E4%BB%B6</t>
@@ -1289,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%85%A9%E5%B2%B8%E6%8E%A2%E8%A6%AA</t>
   </si>
   <si>
-    <t>開放兩岸探親</t>
+    <t>开放两岸探亲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/907%E4%BA%8B%E4%BB%B6</t>
@@ -1307,7 +1298,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%BA%8C%E9%A6%99%E6%B8%AF%E6%9C%83%E8%AB%87</t>
   </si>
   <si>
-    <t>九二香港會談</t>
+    <t>九二香港会谈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E5%B2%9B%E6%B9%96%E4%BA%8B%E4%BB%B6</t>
@@ -1337,13 +1328,13 @@
     <t>https://zh.wikipedia.org/wiki/2005%E5%B9%B4%E4%B8%AD%E5%9C%8B%E5%9C%8B%E6%B0%91%E9%BB%A8%E5%92%8C%E5%B9%B3%E4%B9%8B%E6%97%85</t>
   </si>
   <si>
-    <t>2005年中國國民黨和平之旅</t>
+    <t>2005年中国国民党和平之旅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%B2%B8%E5%AE%9A%E6%9C%9F%E8%88%AA%E7%B7%9A</t>
   </si>
   <si>
-    <t>兩岸定期航線</t>
+    <t>两岸定期航线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BB%E8%B7%AF%E5%A4%96%E4%BA%A4</t>
@@ -1355,13 +1346,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%B2%B8%E5%85%A9%E6%9C%83%E9%AB%98%E5%B1%A4%E6%9C%83%E8%AB%87</t>
   </si>
   <si>
-    <t>兩岸兩會高層會談</t>
+    <t>两岸两会高层会谈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8E%E8%8D%89%E8%8E%93%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>野草莓運動</t>
+    <t>野草莓运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A4%E5%B2%B8%E4%BA%92%E8%B5%A0%E4%BF%9D%E8%82%B2%E7%B1%BB%E5%8A%A8%E7%89%A9</t>
@@ -1373,25 +1364,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8%E5%B1%85%E6%B0%91%E8%B5%B4%E8%87%BA%E7%81%A3%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>中國大陸居民赴臺灣旅遊</t>
+    <t>中国大陆居民赴台湾旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E5%9C%B0%E5%8D%80%E5%A4%A7%E5%AD%B8%E5%8F%8A%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2%E6%A9%9F%E6%A7%8B%E8%AA%8D%E5%8F%AF%E5%90%8D%E5%86%8A</t>
   </si>
   <si>
-    <t>大陸地區大學及高等教育機構認可名冊</t>
+    <t>大陆地区大学及高等教育机构认可名册</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8%E5%AD%B8%E7%94%9F%E8%B5%B4%E8%87%BA%E7%81%A3%E5%B0%B1%E8%AE%80</t>
   </si>
   <si>
-    <t>中國大陸學生赴臺灣就讀</t>
+    <t>中国大陆学生赴台湾就读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1971%E5%B9%B4%E8%87%B3%E4%BB%8A%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E8%88%87%E4%B8%96%E7%95%8C%E8%A1%9B%E7%94%9F%E7%B5%84%E7%B9%94%E7%9A%84%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>1971年至今中華民國與世界衛生組織的關係</t>
+    <t>1971年至今中华民国与世界卫生组织的关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E9%80%9A</t>
@@ -1403,25 +1394,25 @@
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E8%98%87%E8%8A%B1%E5%85%AC%E8%B7%AF%E9%81%8A%E8%A6%BD%E8%BB%8A%E4%BA%8B%E6%95%85</t>
   </si>
   <si>
-    <t>2010年蘇花公路遊覽車事故</t>
+    <t>2010年苏花公路游览车事故</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8D%BE%E9%BC%8E%E9%82%A6%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>鍾鼎邦事件</t>
+    <t>锺鼎邦事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B3%BD%E5%85%A9%E5%B2%B8%E6%9C%8D%E5%8B%99%E8%B2%BF%E6%98%93%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>海峽兩岸服務貿易協議</t>
+    <t>海峡两岸服务贸易协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%8A%B1%E5%AD%B8%E9%81%8B</t>
   </si>
   <si>
-    <t>太陽花學運</t>
+    <t>太阳花学运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%A0%E8%BF%9E%E4%BC%9A</t>
@@ -1439,7 +1430,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B3%BD%E5%85%A9%E5%B2%B8%E8%B2%A8%E5%93%81%E8%B2%BF%E6%98%93%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>海峽兩岸貨品貿易協議</t>
+    <t>海峡两岸货品贸易协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M503%E8%88%AA%E8%B7%AF%E4%BA%8B%E4%BB%B6</t>
@@ -1469,25 +1460,25 @@
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E5%8F%B0%E7%81%A3%E8%A9%90%E9%A8%99%E9%9B%86%E5%9C%98%E6%88%90%E5%93%A1%E6%B6%89%E5%AB%8C%E9%9B%BB%E4%BF%A1%E8%A9%90%E9%A8%99%E6%A1%88</t>
   </si>
   <si>
-    <t>2016年台灣詐騙集團成員涉嫌電信詐騙案</t>
+    <t>2016年台湾诈骗集团成员涉嫌电信诈骗案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%84%E9%A2%A8%E4%B8%89%E5%9E%8B%E5%8F%8D%E8%89%A6%E9%A3%9B%E5%BD%88%E8%AA%A4%E5%B0%84%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>雄風三型反艦飛彈誤射事件</t>
+    <t>雄风三型反舰飞弹误射事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1%E3%80%8A%E6%B2%92%E6%9C%89%E5%88%A5%E7%9A%84%E6%84%9B%E3%80%8B%E6%BC%94%E5%93%A1%E6%92%A4%E6%8F%9B%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>電影《沒有別的愛》演員撤換事件</t>
+    <t>电影《没有别的爱》演员撤换事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E6%A1%83%E5%9C%92%E7%81%AB%E7%87%92%E8%BB%8A%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>2016年桃園火燒車事件</t>
+    <t>2016年桃园火烧车事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%A0%E6%B4%AA%E4%BC%9A</t>
@@ -1517,7 +1508,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%AF%A7%E9%A0%AD%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>古寧頭戰役</t>
+    <t>古宁头战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%9F%E5%B1%B1%E6%88%98%E5%BD%B9</t>
@@ -1529,7 +1520,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BB%E6%AD%A5%E5%B3%B6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>登步島戰役</t>
+    <t>登步岛战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%9F%E5%B1%B1%E6%92%A4%E9%80%80</t>
@@ -1547,13 +1538,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%93%94%E5%B3%B6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>大擔島戰役</t>
+    <t>大担岛战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%97%A5%E5%B3%B6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>南日島戰役</t>
+    <t>南日岛战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%84%E5%B7%9E%E5%B2%9B%E6%88%98%E6%96%97</t>
@@ -1565,19 +1556,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B1%B1%E5%B3%B6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>東山島戰役</t>
+    <t>东山岛战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%B5%B7%E5%B3%BD%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>臺灣海峽危機</t>
+    <t>台湾海峡危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%89%E7%A0%B2%E6%88%B0</t>
   </si>
   <si>
-    <t>九三砲戰</t>
+    <t>九三砲战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E6%B1%9F%E5%B1%B1%E5%B2%9B%E6%88%98%E5%BD%B9</t>
@@ -1589,31 +1580,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B3%E5%B3%B6%E6%92%A4%E9%80%80</t>
   </si>
   <si>
-    <t>大陳島撤退</t>
+    <t>大陈岛撤退</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%B1%B1%E5%88%97%E5%B3%B6%E6%B5%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>台山列島海戰</t>
+    <t>台山列岛海战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B5%B7%E5%BF%83%E6%88%B0</t>
   </si>
   <si>
-    <t>台海心戰</t>
+    <t>台海心战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%89%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>國光計畫</t>
+    <t>国光计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E6%B1%9F%E5%8F%A3%E6%B5%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>閩江口海戰</t>
+    <t>闽江口海战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%97%A8%E7%82%AE%E6%88%98</t>
@@ -1625,31 +1616,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%BA%8C%E6%B5%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>九二海戰</t>
+    <t>九二海战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%BC%95%E6%B5%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>東引海戰</t>
+    <t>东引海战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B1%B1%E6%B5%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>東山海戰</t>
+    <t>东山海战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%9D%B5%E6%B5%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>烏坵海戰</t>
+    <t>乌坵海战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E6%96%87%E7%8D%BB%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>吳文獻事件</t>
+    <t>吴文献事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E4%BA%8C%E4%B8%83%E4%BA%8B%E4%BB%B6</t>
@@ -1661,13 +1652,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%B5%B7%E5%B3%BD%E9%A3%9B%E5%BD%88%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>台灣海峽飛彈危機</t>
+    <t>台湾海峡飞弹危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E4%BA%BA%E6%B0%91%E8%A7%A3%E6%94%BE%E8%BB%8D%E5%B0%8D%E8%87%BA%E7%81%A3%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>中國人民解放軍對臺灣飛彈</t>
+    <t>中国人民解放军对台湾飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1691,19 +1682,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E5%B0%8D%E8%87%BA%E5%B7%A5%E4%BD%9C%E9%A0%98%E5%B0%8E%E5%B0%8F%E7%B5%84</t>
   </si>
   <si>
-    <t>中央對臺工作領導小組</t>
+    <t>中央对台工作领导小组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%8B%E6%B0%91%E9%BB%A8%E4%B8%AD%E5%A4%AE%E5%A7%94%E5%93%A1%E6%9C%83%E6%94%BF%E7%AD%96%E5%A7%94%E5%93%A1%E6%9C%83%E5%A4%A7%E9%99%B8%E4%BA%8B%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>中國國民黨中央委員會政策委員會大陸事務部</t>
+    <t>中国国民党中央委员会政策委员会大陆事务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E4%BA%8B%E5%8B%99%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>中國事務委員會</t>
+    <t>中国事务委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
@@ -1721,19 +1712,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%88%86%E8%A3%82%E5%9C%8B%E5%AE%B6%E6%B3%95</t>
   </si>
   <si>
-    <t>反分裂國家法</t>
+    <t>反分裂国家法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E6%B3%95</t>
   </si>
   <si>
-    <t>中華人民共和國國家安全法</t>
+    <t>中华人民共和国国家安全法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E5%93%A1%E6%88%A1%E4%BA%82%E6%99%82%E6%9C%9F%E8%87%A8%E6%99%82%E6%A2%9D%E6%AC%BE</t>
   </si>
   <si>
-    <t>動員戡亂時期臨時條款</t>
+    <t>动员戡乱时期临时条款</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E9%97%AD%E6%94%BF%E7%AD%96</t>
@@ -1745,19 +1736,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%86%B2%E6%B3%95%E5%A2%9E%E4%BF%AE%E6%A2%9D%E6%96%87</t>
   </si>
   <si>
-    <t>中華民國憲法增修條文</t>
+    <t>中华民国宪法增修条文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B8%BD%E7%B5%B1%E5%8F%8A%E5%89%AF%E7%B8%BD%E7%B5%B1%E5%9C%A8%E8%87%BA%E7%81%A3%E4%B9%8B%E5%85%AC%E6%B0%91%E7%9B%B4%E6%8E%A5%E9%81%B8%E8%88%89%E8%88%87%E7%BD%B7%E5%85%8D</t>
   </si>
   <si>
-    <t>中華民國總統及副總統在臺灣之公民直接選舉與罷免</t>
+    <t>中华民国总统及副总统在台湾之公民直接选举与罢免</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E6%9C%83%E5%9C%A8%E8%87%BA%E7%81%A3%E4%B9%8B%E5%85%A8%E9%9D%A2%E9%81%B8%E8%88%89%E8%88%87%E7%BD%B7%E5%85%8D</t>
   </si>
   <si>
-    <t>中華民國國會在臺灣之全面選舉與罷免</t>
+    <t>中华民国国会在台湾之全面选举与罢免</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%8A%95%E7%A5%A8%E6%B3%95</t>
@@ -1769,19 +1760,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9C%B0%E5%8D%80%E8%88%87%E5%A4%A7%E9%99%B8%E5%9C%B0%E5%8D%80%E4%BA%BA%E6%B0%91%E9%97%9C%E4%BF%82%E6%A2%9D%E4%BE%8B</t>
   </si>
   <si>
-    <t>臺灣地區與大陸地區人民關係條例</t>
+    <t>台湾地区与大陆地区人民关系条例</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%B5%B1%E4%B8%80%E7%B6%B1%E9%A0%98</t>
   </si>
   <si>
-    <t>國家統一綱領</t>
+    <t>国家统一纲领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%B2%B8%E5%8D%94%E8%AD%B0%E7%9B%A3%E7%9D%A3%E6%A2%9D%E4%BE%8B</t>
   </si>
   <si>
-    <t>兩岸協議監督條例</t>
+    <t>两岸协议监督条例</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
@@ -1793,25 +1784,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%97%9C%E4%BF%82%E6%B3%95</t>
   </si>
   <si>
-    <t>臺灣關係法</t>
+    <t>台湾关系法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%AE%89%E5%85%A8%E5%8A%A0%E5%BC%B7%E6%B3%95</t>
   </si>
   <si>
-    <t>臺灣安全加強法</t>
+    <t>台湾安全加强法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E9%A0%85%E4%BF%9D%E8%AD%89</t>
   </si>
   <si>
-    <t>六項保證</t>
+    <t>六项保证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%97%85%E8%A1%8C%E6%B3%95</t>
   </si>
   <si>
-    <t>台灣旅行法</t>
+    <t>台湾旅行法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E7%BD%97%E5%AE%A3%E8%A8%80</t>
@@ -1835,43 +1826,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%8D%E4%BC%8F%E6%96%87%E6%9B%B8</t>
   </si>
   <si>
-    <t>降伏文書</t>
+    <t>降伏文书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E5%92%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>舊金山和約</t>
+    <t>旧金山和约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E5%92%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>中日和約</t>
+    <t>中日和约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83505%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會505號決議</t>
+    <t>联合国大会505号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E7%90%86%E6%9C%8387%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國安理會87號決議</t>
+    <t>联合国安理会87号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E5%85%B1%E5%90%8C%E9%98%B2%E7%A6%A6%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>中美共同防禦條約</t>
+    <t>中美共同防御条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E4%B8%89%E4%B8%AA%E8%81%94%E5%90%88%E5%85%AC%E6%8A%A5</t>
@@ -2750,7 +2741,7 @@
         <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
         <v>43</v>
@@ -2776,10 +2767,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>3</v>
@@ -2805,10 +2796,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2834,10 +2825,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2863,10 +2854,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2892,10 +2883,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>8</v>
@@ -2950,10 +2941,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2979,10 +2970,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -3008,10 +2999,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -3037,10 +3028,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -3066,10 +3057,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3095,10 +3086,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -3124,10 +3115,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3153,10 +3144,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>4</v>
@@ -3182,10 +3173,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>5</v>
@@ -3211,10 +3202,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3240,10 +3231,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>5</v>
@@ -3269,10 +3260,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3298,10 +3289,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3327,10 +3318,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3356,10 +3347,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>4</v>
@@ -3385,10 +3376,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>4</v>
@@ -3414,10 +3405,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3443,10 +3434,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -3472,10 +3463,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>17</v>
@@ -3501,10 +3492,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>48</v>
@@ -3530,10 +3521,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>5</v>
@@ -3559,10 +3550,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3588,10 +3579,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>5</v>
@@ -3617,10 +3608,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3646,10 +3637,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3675,10 +3666,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3704,10 +3695,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3733,10 +3724,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3762,10 +3753,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3791,10 +3782,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3820,10 +3811,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3849,10 +3840,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -3878,10 +3869,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>5</v>
@@ -3907,10 +3898,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3936,10 +3927,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3965,10 +3956,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3994,10 +3985,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4023,10 +4014,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -4052,10 +4043,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -4081,10 +4072,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G64" t="n">
         <v>5</v>
@@ -4110,10 +4101,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -4139,10 +4130,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -4168,10 +4159,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G67" t="n">
         <v>4</v>
@@ -4197,10 +4188,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4226,10 +4217,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4255,10 +4246,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4284,10 +4275,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4313,10 +4304,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4342,10 +4333,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4371,10 +4362,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4400,10 +4391,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4429,10 +4420,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4458,10 +4449,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4487,10 +4478,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4516,10 +4507,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4545,10 +4536,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4574,10 +4565,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4603,10 +4594,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4632,10 +4623,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4661,10 +4652,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4690,10 +4681,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4719,10 +4710,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4748,10 +4739,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4777,10 +4768,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4806,10 +4797,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4835,10 +4826,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4864,10 +4855,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4893,10 +4884,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4922,10 +4913,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4951,10 +4942,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4980,10 +4971,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5009,10 +5000,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5038,10 +5029,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5067,10 +5058,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5096,10 +5087,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5125,10 +5116,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5154,10 +5145,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5183,10 +5174,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5212,10 +5203,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5241,10 +5232,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5270,10 +5261,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5299,10 +5290,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5328,10 +5319,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5357,10 +5348,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5386,10 +5377,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5415,10 +5406,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5444,10 +5435,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5473,10 +5464,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5502,10 +5493,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5531,10 +5522,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5560,10 +5551,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5589,10 +5580,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5618,10 +5609,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5647,10 +5638,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5676,10 +5667,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5705,10 +5696,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5734,10 +5725,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5763,10 +5754,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5792,10 +5783,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5821,10 +5812,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5850,10 +5841,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F125" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5879,10 +5870,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5908,10 +5899,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5937,10 +5928,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5966,10 +5957,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5995,10 +5986,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6024,10 +6015,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6053,10 +6044,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6082,10 +6073,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6111,10 +6102,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -6140,10 +6131,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -6169,10 +6160,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6198,10 +6189,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6227,10 +6218,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6256,10 +6247,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6285,10 +6276,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6314,10 +6305,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6343,10 +6334,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6372,10 +6363,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6401,10 +6392,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6430,10 +6421,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6459,10 +6450,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6488,10 +6479,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6517,10 +6508,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6546,10 +6537,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6575,10 +6566,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6604,10 +6595,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6633,10 +6624,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -6662,10 +6653,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6691,10 +6682,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6720,10 +6711,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6749,10 +6740,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6778,10 +6769,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6807,10 +6798,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6836,10 +6827,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6865,10 +6856,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6894,10 +6885,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6923,10 +6914,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6952,10 +6943,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6981,10 +6972,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7010,10 +7001,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7039,10 +7030,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7068,10 +7059,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7097,10 +7088,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7126,10 +7117,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7155,10 +7146,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7184,10 +7175,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7213,10 +7204,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7242,10 +7233,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -7271,10 +7262,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7300,10 +7291,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7329,10 +7320,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7358,10 +7349,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7387,10 +7378,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7416,10 +7407,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7445,10 +7436,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7474,10 +7465,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7503,10 +7494,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7532,10 +7523,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7561,10 +7552,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7590,10 +7581,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7619,10 +7610,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7648,10 +7639,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7677,10 +7668,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7706,10 +7697,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7735,10 +7726,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7764,10 +7755,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7793,10 +7784,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7822,10 +7813,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7851,10 +7842,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7880,10 +7871,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7909,10 +7900,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7938,10 +7929,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7967,10 +7958,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7996,10 +7987,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8025,10 +8016,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8054,10 +8045,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F201" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8083,10 +8074,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F202" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8112,10 +8103,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F203" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8141,10 +8132,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8170,10 +8161,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F205" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8199,10 +8190,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F206" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8228,10 +8219,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F207" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8257,10 +8248,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F208" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8286,10 +8277,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F209" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8315,10 +8306,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F210" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8344,10 +8335,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F211" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8373,10 +8364,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F212" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8402,10 +8393,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F213" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8431,10 +8422,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F214" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8460,10 +8451,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F215" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8489,10 +8480,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F216" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8518,10 +8509,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F217" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8547,10 +8538,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>66</v>
+      </c>
+      <c r="F218" t="s">
         <v>67</v>
-      </c>
-      <c r="F218" t="s">
-        <v>68</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8576,10 +8567,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F219" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8605,10 +8596,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F220" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8634,10 +8625,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F221" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -8663,10 +8654,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F222" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8692,10 +8683,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F223" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8721,10 +8712,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F224" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8750,10 +8741,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F225" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8779,10 +8770,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F226" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8808,10 +8799,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F227" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8837,10 +8828,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F228" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8866,10 +8857,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F229" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8895,10 +8886,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F230" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8924,10 +8915,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F231" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8953,10 +8944,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F232" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8982,13 +8973,13 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>100</v>
+      </c>
+      <c r="F233" t="s">
         <v>101</v>
       </c>
-      <c r="F233" t="s">
-        <v>102</v>
-      </c>
       <c r="G233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -9011,10 +9002,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F234" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9040,10 +9031,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F235" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9069,10 +9060,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F236" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9098,10 +9089,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F237" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9127,10 +9118,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9156,10 +9147,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F239" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9185,10 +9176,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9214,10 +9205,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F241" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9243,10 +9234,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F242" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9272,10 +9263,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9301,10 +9292,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9330,10 +9321,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9359,10 +9350,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9388,10 +9379,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F247" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9417,10 +9408,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F248" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9446,10 +9437,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9475,10 +9466,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9504,10 +9495,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F251" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9533,10 +9524,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F252" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9562,10 +9553,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F253" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9591,10 +9582,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F254" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9620,10 +9611,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F255" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9649,10 +9640,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F256" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9678,10 +9669,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F257" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9707,10 +9698,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F258" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9736,10 +9727,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F259" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9765,10 +9756,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F260" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9794,10 +9785,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F261" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9823,10 +9814,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F262" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9852,10 +9843,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F263" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9881,10 +9872,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F264" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9910,10 +9901,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F265" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9939,10 +9930,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F266" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9968,10 +9959,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F267" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9997,10 +9988,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F268" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10026,10 +10017,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F269" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10055,10 +10046,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F270" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10084,10 +10075,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F271" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10113,10 +10104,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F272" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10142,10 +10133,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F273" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10171,10 +10162,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F274" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10200,10 +10191,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F275" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10229,10 +10220,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F276" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10258,10 +10249,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F277" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10287,10 +10278,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F278" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10316,10 +10307,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F279" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10345,10 +10336,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F280" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G280" t="n">
         <v>3</v>
@@ -10374,10 +10365,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F281" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10403,10 +10394,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F282" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10432,10 +10423,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F283" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10461,10 +10452,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F284" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10490,10 +10481,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F285" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10519,10 +10510,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F286" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10548,10 +10539,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F287" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10577,10 +10568,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F288" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10606,10 +10597,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F289" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10635,10 +10626,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F290" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10664,10 +10655,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F291" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10693,10 +10684,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F292" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10722,10 +10713,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F293" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10751,10 +10742,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F294" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10780,10 +10771,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F295" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10809,10 +10800,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F296" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10838,10 +10829,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F297" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10867,10 +10858,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F298" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10896,10 +10887,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F299" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10925,10 +10916,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F300" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10954,10 +10945,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F301" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10983,10 +10974,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F302" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11012,10 +11003,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F303" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11041,10 +11032,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F304" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11070,10 +11061,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F305" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11099,10 +11090,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F306" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11128,10 +11119,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F307" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11157,10 +11148,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F308" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11186,10 +11177,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F309" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11215,10 +11206,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F310" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11244,10 +11235,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F311" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11273,10 +11264,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F312" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11302,10 +11293,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F313" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11331,10 +11322,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F314" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11360,10 +11351,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F315" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G315" t="n">
         <v>11</v>
@@ -11389,10 +11380,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F316" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
